--- a/syab07206_hutt.xlsx
+++ b/syab07206_hutt.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE695AE-FFC8-4C1E-B12D-9922CB83D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE444DE5-E74E-407D-ADC9-E060FD59EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16335" yWindow="780" windowWidth="16065" windowHeight="18390" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Huttenlocker" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="16">
   <si>
     <t>Charlabels</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>NT?;0=0-;1=11;2=12;3=13</t>
+  </si>
+  <si>
+    <t>NT?;0=0-;1=11;2=12;3=13;4=14;5=15</t>
+  </si>
+  <si>
+    <t>NT?;0=11;1=12;2=13;3=14;4=0-</t>
+  </si>
+  <si>
+    <t>NT?:0=15;1=14;2=13;3=12;4=11;5=0-</t>
+  </si>
+  <si>
+    <t>NT?:0=12;1=11;2=0-</t>
   </si>
 </sst>
 </file>
@@ -506,13 +518,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
   <dimension ref="A1:C539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1136,1003 +1148,1578 @@
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="B79" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" t="str">
+        <f>B177</f>
+        <v>NT?:0=15;1=14;2=13;3=12;4=11;5=0-</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" t="str">
+        <f>B185</f>
+        <v>NT?:0=12;1=11;2=0-</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>

--- a/syab07206_hutt.xlsx
+++ b/syab07206_hutt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE444DE5-E74E-407D-ADC9-E060FD59EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205F92BD-1191-4D71-BB2C-86BB17107BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16335" yWindow="780" windowWidth="16065" windowHeight="18390" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="20">
   <si>
     <t>Charlabels</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Transformational</t>
+  </si>
+  <si>
+    <t>NT?;0=11;1=12;2=0-</t>
   </si>
   <si>
     <t>NT?;0=0-;1=11;2=12</t>
@@ -107,6 +110,15 @@
   </si>
   <si>
     <t>NT?:0=12;1=11;2=0-</t>
+  </si>
+  <si>
+    <t>NT?;0=11;1=0-;2=12</t>
+  </si>
+  <si>
+    <t>NNN;0=000;1=001;2=011;3=111</t>
+  </si>
+  <si>
+    <t>NT?;0=13;1=12;2=11;3=0-</t>
   </si>
 </sst>
 </file>
@@ -518,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
   <dimension ref="A1:C539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263"/>
+    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -568,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -585,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -594,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -638,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -673,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -709,7 +721,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -718,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -727,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -736,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -754,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -763,7 +775,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +783,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,7 +791,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -865,7 +877,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -968,7 +980,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -977,7 +989,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -1021,7 +1033,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1037,7 +1049,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3"/>
     </row>
@@ -1071,7 +1083,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="2"/>
     </row>
@@ -1080,7 +1092,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" s="2"/>
     </row>
@@ -1089,7 +1101,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1106,7 +1118,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -1115,7 +1127,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,7 +1161,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1189,7 +1201,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1205,7 +1217,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,7 +1233,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1241,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1249,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1273,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1337,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +1353,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1361,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1369,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1377,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1393,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1505,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1537,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1545,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1577,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1601,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1617,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1633,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +1729,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1745,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1769,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1793,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1881,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1889,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1897,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1921,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1945,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,7 +1953,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +2001,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2066,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2159,7 +2171,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,7 +2187,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2199,7 +2211,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2207,7 +2219,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,7 +2235,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2231,7 +2243,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2387,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2391,7 +2403,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2459,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2467,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2499,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2607,7 +2619,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2615,7 +2627,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2623,7 +2635,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,768 +2690,1185 @@
       <c r="A263">
         <v>262</v>
       </c>
+      <c r="B263" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
+      <c r="B264" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
+      <c r="B265" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
+      <c r="B266" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
+      <c r="B267" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
+      <c r="B268" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
+      <c r="B269" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
+      <c r="B270" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
+      <c r="B271" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B301" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B302" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B303" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B318" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B359" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B361" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B362" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B365" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B367" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B370" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B371" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B372" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B373" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B374" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B375" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B376" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B377" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B378" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B379" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B380" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B381" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B382" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B383" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B400" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B401" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>

--- a/syab07206_hutt.xlsx
+++ b/syab07206_hutt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205F92BD-1191-4D71-BB2C-86BB17107BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9FB1E7-DD7B-425C-85FA-943BA876AE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16335" yWindow="780" windowWidth="16065" windowHeight="18390" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="20">
   <si>
     <t>Charlabels</t>
   </si>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
   <dimension ref="A1:C539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B402" sqref="B402"/>
+    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B540" sqref="B540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3802,690 +3802,1106 @@
       <c r="A402">
         <v>401</v>
       </c>
+      <c r="B402" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
+      <c r="B403" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
+      <c r="B404" t="str">
+        <f>B393</f>
+        <v>NT?;0=12;1=11;2=0-</v>
+      </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
+      <c r="B405" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
+      <c r="B406" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
+      <c r="B407" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
+      <c r="B408" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
+      <c r="B409" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
+      <c r="B410" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
+      <c r="B411" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
+      <c r="B412" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
+      <c r="B413" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
+      <c r="B414" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
+      <c r="B415" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B416" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B417" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B418" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B419" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B420" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B421" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B422" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B423" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B425" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B426" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B427" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B429" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B430" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B431" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B432" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B433" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B434" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B435" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B436" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B437" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B438" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B439" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B440" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B441" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B442" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B443" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B444" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B445" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B446" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B447" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B448" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B449" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B450" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B451" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B452" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B453" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B454" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B455" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B456" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B457" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B458" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B459" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B460" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B461" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B462" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B463" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B464" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B465" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B466" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B467" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B468" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B469" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B470" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B471" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B472" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B473" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B474" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B475" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B476" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B477" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B478" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B479" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B480" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B481" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B482" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B483" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B484" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B485" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B486" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B487" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B488" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B489" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B490" t="str">
+        <f>B488</f>
+        <v>NT?;0=12;1=11;2=0-</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B491" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B492" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B493" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B494" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B495" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B496" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B497" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B498" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B499" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B500" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B501" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B502" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B503" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B504" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B505" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B506" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B507" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B508" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B512" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B513" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B514" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B515" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B516" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B517" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B518" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B519" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B520" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B521" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B522" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B523" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B524" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B525" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B526" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B527" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B528" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B529" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B530" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B531" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B532" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B533" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B535" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B536" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B537" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B538" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
+      </c>
+      <c r="B539" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/syab07206_hutt.xlsx
+++ b/syab07206_hutt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9FB1E7-DD7B-425C-85FA-943BA876AE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E96BB-E5F4-4550-9C2F-E3AF06D1A6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16335" yWindow="780" windowWidth="16065" windowHeight="18390" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
@@ -54,12 +54,80 @@
         </r>
       </text>
     </comment>
+    <comment ref="B220" authorId="0" shapeId="0" xr:uid="{F9AE8A33-DEB1-4363-80E2-E1CE9CDC4628}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>State two scored for Agilodocodon but not described in character description.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B306" authorId="0" shapeId="0" xr:uid="{2FF351A6-A37F-4D4B-9766-CF39E5396AF8}">
+      <text>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ornithorhynchus</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> and </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Akidolestes</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>coded 2 – presumed error, replaced with "?"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B308" authorId="0" shapeId="0" xr:uid="{972820AB-B995-40A0-B11D-32EE9C2C0FEA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Five taxa coded 2 – presumed error, replaced with "?"</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="21">
   <si>
     <t>Charlabels</t>
   </si>
@@ -120,12 +188,15 @@
   <si>
     <t>NT?;0=13;1=12;2=11;3=0-</t>
   </si>
+  <si>
+    <t>N;0=0;1=1;2=?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +236,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -530,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
   <dimension ref="A1:C539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B540" sqref="B540"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2347,7 +2431,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3035,7 +3119,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -3051,7 +3135,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
